--- a/INTLINE/data/144/SCB/ImportExportSnabbM.xlsx
+++ b/INTLINE/data/144/SCB/ImportExportSnabbM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="591">
   <x:si>
     <x:t>Imports of goods, exports of goods and Net Trade of goods by imports of goods/exports of goods and month</x:t>
   </x:si>
@@ -1715,6 +1715,12 @@
   </x:si>
   <x:si>
     <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
   </x:si>
   <x:si>
     <x:t>Total imports, SEK million</x:t>
@@ -1736,7 +1742,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220328 08:00</x:t>
+    <x:t>20220530 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1748,7 +1754,7 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> +46 010-479 50 00</x:t>
@@ -2174,21 +2180,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:UU42"/>
+  <x:dimension ref="A1:UW42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="567" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="569" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:567">
+    <x:row r="1" spans="1:569">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:567">
+    <x:row r="3" spans="1:569">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3887,10 +3893,16 @@
       <x:c r="UU3" s="2" t="s">
         <x:v>566</x:v>
       </x:c>
+      <x:c r="UV3" s="2" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="UW3" s="2" t="s">
+        <x:v>568</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:567">
+    <x:row r="4" spans="1:569">
       <x:c r="A4" s="2" t="s">
-        <x:v>567</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>7975</x:v>
@@ -5582,18 +5594,24 @@
         <x:v>153700</x:v>
       </x:c>
       <x:c r="US4" s="3" t="n">
-        <x:v>153000</x:v>
+        <x:v>152600</x:v>
       </x:c>
       <x:c r="UT4" s="3" t="n">
-        <x:v>142500</x:v>
+        <x:v>142700</x:v>
       </x:c>
       <x:c r="UU4" s="3" t="n">
-        <x:v>149600</x:v>
+        <x:v>150100</x:v>
+      </x:c>
+      <x:c r="UV4" s="3" t="n">
+        <x:v>178200</x:v>
+      </x:c>
+      <x:c r="UW4" s="3" t="n">
+        <x:v>157400</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:567">
+    <x:row r="5" spans="1:569">
       <x:c r="A5" s="2" t="s">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>6200</x:v>
@@ -7291,114 +7309,120 @@
         <x:v>141400</x:v>
       </x:c>
       <x:c r="UU5" s="3" t="n">
-        <x:v>150600</x:v>
+        <x:v>151400</x:v>
+      </x:c>
+      <x:c r="UV5" s="3" t="n">
+        <x:v>182900</x:v>
+      </x:c>
+      <x:c r="UW5" s="3" t="n">
+        <x:v>155600</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:567">
+    <x:row r="7" spans="1:569">
       <x:c r="A7" s="4" t="s">
-        <x:v>569</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:567">
+    <x:row r="8" spans="1:569">
       <x:c r="A8" s="4" t="s">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:567">
+    <x:row r="9" spans="1:569">
       <x:c r="A9" s="4" t="s">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:567">
+    <x:row r="11" spans="1:569">
       <x:c r="A11" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:567">
+    <x:row r="12" spans="1:569">
       <x:c r="A12" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:567">
+    <x:row r="14" spans="1:569">
       <x:c r="A14" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:567">
+    <x:row r="15" spans="1:569">
       <x:c r="A15" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:567">
+    <x:row r="17" spans="1:569">
       <x:c r="A17" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:567">
+    <x:row r="18" spans="1:569">
       <x:c r="A18" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:567">
+    <x:row r="19" spans="1:569">
       <x:c r="A19" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:567">
+    <x:row r="20" spans="1:569">
       <x:c r="A20" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:567">
+    <x:row r="25" spans="1:569">
       <x:c r="A25" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:567">
+    <x:row r="26" spans="1:569">
       <x:c r="A26" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:567">
+    <x:row r="28" spans="1:569">
       <x:c r="A28" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:567">
+    <x:row r="29" spans="1:569">
       <x:c r="A29" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:567">
+    <x:row r="36" spans="1:569">
       <x:c r="A36" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:567">
+    <x:row r="38" spans="1:569">
       <x:c r="A38" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:567">
+    <x:row r="39" spans="1:569">
       <x:c r="A39" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>588</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:567">
+    <x:row r="41" spans="1:569">
       <x:c r="A41" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>589</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:567">
+    <x:row r="42" spans="1:569">
       <x:c r="A42" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A7:UU7"/>
-    <x:mergeCell ref="A8:UU8"/>
-    <x:mergeCell ref="A9:UU9"/>
+    <x:mergeCell ref="A7:UW7"/>
+    <x:mergeCell ref="A8:UW8"/>
+    <x:mergeCell ref="A9:UW9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
